--- a/utilities/EmpDetails.xlsx
+++ b/utilities/EmpDetails.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Transactions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>First Name</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Jackson</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Current Balance</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Debit</t>
   </si>
 </sst>
 </file>
@@ -120,10 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -524,12 +544,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <f>A2-A3</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3-A4</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4+A5</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <f>C5-A6</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C6-A7</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C7+A8</f>
+        <v>25100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
